--- a/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/MBNN PHASE-1 AND PHASE-2 ACCOUNT BALANCE.xlsx
+++ b/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/MBNN PHASE-1 AND PHASE-2 ACCOUNT BALANCE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\ACADAMIC MONITORING TEAM 01.08.2023\TASKS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF16CF-CAED-47CC-8E12-3580E16BBE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="345" windowWidth="15555" windowHeight="15480"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="14400" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="5" r:id="rId1"/>
@@ -18,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Sheet1!$A$1:$E$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1 (2)'!$41:$41</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="304">
   <si>
     <t>MPPS  KAPPAKALLU</t>
   </si>
@@ -931,12 +937,30 @@
   </si>
   <si>
     <t>MANA BADI NADU NEDU PHASE-II BANK ACCOUNT BALANCE AS ON 16.08.2023</t>
+  </si>
+  <si>
+    <t>GOVT</t>
+  </si>
+  <si>
+    <t>ASHRAM</t>
+  </si>
+  <si>
+    <t>MPP</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>APTW</t>
+  </si>
+  <si>
+    <t>KGBV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1878,21 +1902,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A72" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1941,15 +1965,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="C3" s="16">
-        <v>28120200701</v>
+        <v>28120207506</v>
       </c>
       <c r="D3" s="16">
-        <v>12070554</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>12070652</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,15 +1983,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="C4" s="16">
-        <v>28120200901</v>
+        <v>28120207507</v>
       </c>
       <c r="D4" s="16">
-        <v>12070556</v>
-      </c>
-      <c r="E4" s="17"/>
+        <v>12070653</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,15 +2001,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="C5" s="16">
-        <v>28120201204</v>
+        <v>28120207003</v>
       </c>
       <c r="D5" s="16">
-        <v>12070563</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>12072899</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,7 +2027,9 @@
       <c r="D6" s="16">
         <v>12070564</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,15 +2037,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="C7" s="16">
-        <v>28120201501</v>
+        <v>28120201603</v>
       </c>
       <c r="D7" s="16">
-        <v>12070568</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>12070570</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2021,15 +2055,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8" s="16">
-        <v>28120201603</v>
+        <v>28120201803</v>
       </c>
       <c r="D8" s="16">
-        <v>12070570</v>
-      </c>
-      <c r="E8" s="17"/>
+        <v>12070575</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2037,15 +2073,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C9" s="16">
-        <v>28120201708</v>
+        <v>28120202803</v>
       </c>
       <c r="D9" s="16">
-        <v>12070573</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>12070589</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,15 +2091,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C10" s="16">
-        <v>28120201803</v>
+        <v>28120205202</v>
       </c>
       <c r="D10" s="16">
-        <v>12070575</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>12070620</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,15 +2109,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="C11" s="16">
-        <v>28120202003</v>
+        <v>28120210003</v>
       </c>
       <c r="D11" s="16">
-        <v>12070579</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>12070692</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,15 +2127,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C12" s="16">
-        <v>28120202803</v>
+        <v>28120210205</v>
       </c>
       <c r="D12" s="16">
-        <v>12070589</v>
-      </c>
-      <c r="E12" s="17"/>
+        <v>12070696</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,15 +2145,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="C13" s="16">
-        <v>28120203001</v>
+        <v>28120210804</v>
       </c>
       <c r="D13" s="16">
-        <v>12070591</v>
-      </c>
-      <c r="E13" s="17"/>
+        <v>12070704</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,15 +2163,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="C14" s="16">
-        <v>28120203501</v>
+        <v>28120212104</v>
       </c>
       <c r="D14" s="16">
-        <v>12070599</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>12070717</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,15 +2181,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="C15" s="16">
-        <v>28120203601</v>
+        <v>28120212206</v>
       </c>
       <c r="D15" s="16">
-        <v>12070601</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>12070724</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,15 +2199,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="C16" s="16">
-        <v>28120204902</v>
+        <v>28120212403</v>
       </c>
       <c r="D16" s="16">
-        <v>12070617</v>
-      </c>
-      <c r="E16" s="17"/>
+        <v>12070730</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,15 +2217,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="C17" s="16">
-        <v>28120205202</v>
+        <v>28120200701</v>
       </c>
       <c r="D17" s="16">
-        <v>12070620</v>
-      </c>
-      <c r="E17" s="17"/>
+        <v>12070554</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,15 +2235,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C18" s="16">
-        <v>28120205601</v>
+        <v>28120200901</v>
       </c>
       <c r="D18" s="16">
-        <v>12070624</v>
-      </c>
-      <c r="E18" s="17"/>
+        <v>12070556</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,15 +2253,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16">
-        <v>28120206001</v>
+        <v>28120201204</v>
       </c>
       <c r="D19" s="16">
-        <v>12070627</v>
-      </c>
-      <c r="E19" s="17"/>
+        <v>12070563</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,15 +2271,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C20" s="16">
-        <v>28120206301</v>
+        <v>28120201501</v>
       </c>
       <c r="D20" s="16">
-        <v>12070629</v>
-      </c>
-      <c r="E20" s="17"/>
+        <v>12070568</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,15 +2289,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C21" s="16">
-        <v>28120206701</v>
+        <v>28120203001</v>
       </c>
       <c r="D21" s="16">
-        <v>12070632</v>
-      </c>
-      <c r="E21" s="17"/>
+        <v>12070591</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,15 +2307,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C22" s="16">
-        <v>28120206901</v>
+        <v>28120203601</v>
       </c>
       <c r="D22" s="16">
-        <v>12070634</v>
-      </c>
-      <c r="E22" s="17"/>
+        <v>12070601</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,15 +2325,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="C23" s="16">
-        <v>28120207003</v>
+        <v>28120204902</v>
       </c>
       <c r="D23" s="16">
-        <v>12072899</v>
-      </c>
-      <c r="E23" s="17"/>
+        <v>12070617</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,15 +2343,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16">
-        <v>28120207505</v>
+        <v>28120206901</v>
       </c>
       <c r="D24" s="16">
-        <v>12070651</v>
-      </c>
-      <c r="E24" s="17"/>
+        <v>12070634</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,15 +2361,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="C25" s="16">
-        <v>28120207506</v>
+        <v>28120207505</v>
       </c>
       <c r="D25" s="16">
-        <v>12070652</v>
-      </c>
-      <c r="E25" s="17"/>
+        <v>12070651</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,15 +2379,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="C26" s="16">
-        <v>28120207507</v>
+        <v>28120207602</v>
       </c>
       <c r="D26" s="16">
-        <v>12070653</v>
-      </c>
-      <c r="E26" s="17"/>
+        <v>12070655</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,15 +2397,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C27" s="16">
-        <v>28120207602</v>
+        <v>28120211001</v>
       </c>
       <c r="D27" s="16">
-        <v>12070655</v>
-      </c>
-      <c r="E27" s="17"/>
+        <v>12070705</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,15 +2415,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="16">
-        <v>28120207604</v>
+        <v>28120207607</v>
       </c>
       <c r="D28" s="16">
-        <v>12070657</v>
-      </c>
-      <c r="E28" s="17"/>
+        <v>12070658</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,15 +2433,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16">
-        <v>28120207607</v>
+        <v>28120201708</v>
       </c>
       <c r="D29" s="16">
-        <v>12070658</v>
-      </c>
-      <c r="E29" s="17"/>
+        <v>12070573</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,15 +2451,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="C30" s="16">
-        <v>28120210003</v>
+        <v>28120203501</v>
       </c>
       <c r="D30" s="16">
-        <v>12070692</v>
-      </c>
-      <c r="E30" s="17"/>
+        <v>12070599</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,15 +2469,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="C31" s="16">
-        <v>28120210205</v>
+        <v>28120205601</v>
       </c>
       <c r="D31" s="16">
-        <v>12070696</v>
-      </c>
-      <c r="E31" s="17"/>
+        <v>12070624</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,15 +2487,17 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C32" s="16">
-        <v>28120210601</v>
+        <v>28120206001</v>
       </c>
       <c r="D32" s="16">
-        <v>12070702</v>
-      </c>
-      <c r="E32" s="17"/>
+        <v>12070627</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2421,15 +2505,17 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="C33" s="16">
-        <v>28120210804</v>
+        <v>28120206301</v>
       </c>
       <c r="D33" s="16">
-        <v>12070704</v>
-      </c>
-      <c r="E33" s="17"/>
+        <v>12070629</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,15 +2523,17 @@
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C34" s="16">
-        <v>28120211001</v>
+        <v>28120206701</v>
       </c>
       <c r="D34" s="16">
-        <v>12070705</v>
-      </c>
-      <c r="E34" s="17"/>
+        <v>12070632</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,15 +2541,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C35" s="16">
-        <v>28120211301</v>
+        <v>28120207604</v>
       </c>
       <c r="D35" s="16">
-        <v>12070707</v>
-      </c>
-      <c r="E35" s="17"/>
+        <v>12070657</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,15 +2559,17 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C36" s="16">
-        <v>28120212104</v>
+        <v>28120210601</v>
       </c>
       <c r="D36" s="16">
-        <v>12070717</v>
-      </c>
-      <c r="E36" s="17"/>
+        <v>12070702</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,15 +2577,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="C37" s="16">
-        <v>28120212206</v>
+        <v>28120212301</v>
       </c>
       <c r="D37" s="16">
-        <v>12070724</v>
-      </c>
-      <c r="E37" s="17"/>
+        <v>12070725</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,15 +2595,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="C38" s="16">
-        <v>28120212301</v>
+        <v>28120202003</v>
       </c>
       <c r="D38" s="16">
-        <v>12070725</v>
-      </c>
-      <c r="E38" s="17"/>
+        <v>12070579</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,15 +2613,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="C39" s="16">
-        <v>28120212403</v>
+        <v>28120211301</v>
       </c>
       <c r="D39" s="16">
-        <v>12070730</v>
-      </c>
-      <c r="E39" s="17"/>
+        <v>12070707</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,16 +2916,18 @@
         <v>16</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="C57" s="16">
-        <v>28120200301</v>
+        <v>28120207615</v>
       </c>
       <c r="D57" s="16">
-        <f t="shared" si="0"/>
-        <v>12070549</v>
-      </c>
-      <c r="E57" s="17"/>
+        <f>IFERROR(VLOOKUP(C57,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070662</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2835,16 +2935,18 @@
         <v>17</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58" s="16">
-        <v>28120200701</v>
+        <v>28120200301</v>
       </c>
       <c r="D58" s="16">
-        <f t="shared" si="0"/>
-        <v>12070554</v>
-      </c>
-      <c r="E58" s="17"/>
+        <f>IFERROR(VLOOKUP(C58,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070549</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,16 +2954,18 @@
         <v>18</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" s="16">
-        <v>28120200901</v>
+        <v>28120200701</v>
       </c>
       <c r="D59" s="16">
-        <f t="shared" si="0"/>
-        <v>12070556</v>
-      </c>
-      <c r="E59" s="17"/>
+        <f>IFERROR(VLOOKUP(C59,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070554</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2869,16 +2973,18 @@
         <v>19</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C60" s="16">
-        <v>28120202401</v>
+        <v>28120200901</v>
       </c>
       <c r="D60" s="16">
-        <f t="shared" si="0"/>
-        <v>12070583</v>
-      </c>
-      <c r="E60" s="17"/>
+        <f>IFERROR(VLOOKUP(C60,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070556</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,10 +2998,12 @@
         <v>28120202801</v>
       </c>
       <c r="D61" s="16">
-        <f t="shared" si="0"/>
+        <f>IFERROR(VLOOKUP(C61,IMMSLOGIN,3,FALSE),"")</f>
         <v>12070587</v>
       </c>
-      <c r="E61" s="17"/>
+      <c r="E61" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,10 +3017,12 @@
         <v>28120203001</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="0"/>
+        <f>IFERROR(VLOOKUP(C62,IMMSLOGIN,3,FALSE),"")</f>
         <v>12070591</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,16 +3030,18 @@
         <v>22</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C63" s="16">
-        <v>28120203501</v>
+        <v>28120203901</v>
       </c>
       <c r="D63" s="16">
-        <f t="shared" si="0"/>
-        <v>12070599</v>
-      </c>
-      <c r="E63" s="17"/>
+        <f>IFERROR(VLOOKUP(C63,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070605</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,16 +3049,18 @@
         <v>23</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C64" s="16">
-        <v>28120203801</v>
+        <v>28120204101</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="0"/>
-        <v>12070604</v>
-      </c>
-      <c r="E64" s="17"/>
+        <f>IFERROR(VLOOKUP(C64,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070607</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,16 +3068,18 @@
         <v>24</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C65" s="16">
-        <v>28120203901</v>
+        <v>28120204601</v>
       </c>
       <c r="D65" s="16">
-        <f t="shared" si="0"/>
-        <v>12070605</v>
-      </c>
-      <c r="E65" s="17"/>
+        <f>IFERROR(VLOOKUP(C65,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070611</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,16 +3087,18 @@
         <v>25</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C66" s="16">
-        <v>28120204101</v>
+        <v>28120205001</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" si="0"/>
-        <v>12070607</v>
-      </c>
-      <c r="E66" s="17"/>
+        <f>IFERROR(VLOOKUP(C66,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070618</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2988,16 +3106,18 @@
         <v>26</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C67" s="16">
-        <v>28120204601</v>
+        <v>28120205201</v>
       </c>
       <c r="D67" s="16">
-        <f t="shared" si="0"/>
-        <v>12070611</v>
-      </c>
-      <c r="E67" s="17"/>
+        <f>IFERROR(VLOOKUP(C67,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070619</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,16 +3125,18 @@
         <v>27</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="C68" s="16">
-        <v>28120204701</v>
+        <v>28120207002</v>
       </c>
       <c r="D68" s="16">
-        <f t="shared" si="0"/>
-        <v>12070613</v>
-      </c>
-      <c r="E68" s="17"/>
+        <f>IFERROR(VLOOKUP(C68,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070637</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,16 +3144,18 @@
         <v>28</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C69" s="16">
-        <v>28120204901</v>
+        <v>28120209501</v>
       </c>
       <c r="D69" s="16">
-        <f t="shared" si="0"/>
-        <v>12070616</v>
-      </c>
-      <c r="E69" s="17"/>
+        <f>IFERROR(VLOOKUP(C69,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070686</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,16 +3163,18 @@
         <v>29</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C70" s="16">
-        <v>28120205001</v>
+        <v>28120211001</v>
       </c>
       <c r="D70" s="16">
-        <f t="shared" si="0"/>
-        <v>12070618</v>
-      </c>
-      <c r="E70" s="17"/>
+        <f>IFERROR(VLOOKUP(C70,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070705</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,16 +3182,18 @@
         <v>30</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="C71" s="16">
-        <v>28120205201</v>
+        <v>28120212303</v>
       </c>
       <c r="D71" s="16">
-        <f t="shared" si="0"/>
-        <v>12070619</v>
-      </c>
-      <c r="E71" s="17"/>
+        <f>IFERROR(VLOOKUP(C71,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070727</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,16 +3201,18 @@
         <v>31</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C72" s="16">
-        <v>28120207001</v>
+        <v>28120207607</v>
       </c>
       <c r="D72" s="16">
-        <f t="shared" si="0"/>
-        <v>12070636</v>
-      </c>
-      <c r="E72" s="17"/>
+        <f>IFERROR(VLOOKUP(C72,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070658</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>303</v>
+      </c>
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,16 +3220,18 @@
         <v>32</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="C73" s="16">
-        <v>28120207002</v>
+        <v>28120202401</v>
       </c>
       <c r="D73" s="16">
-        <f t="shared" si="0"/>
-        <v>12070637</v>
-      </c>
-      <c r="E73" s="17"/>
+        <f>IFERROR(VLOOKUP(C73,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070583</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,16 +3239,18 @@
         <v>33</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C74" s="16">
-        <v>28120207201</v>
+        <v>28120203501</v>
       </c>
       <c r="D74" s="16">
-        <f t="shared" si="0"/>
-        <v>12070641</v>
-      </c>
-      <c r="E74" s="17"/>
+        <f>IFERROR(VLOOKUP(C74,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070599</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,16 +3258,18 @@
         <v>34</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C75" s="16">
-        <v>28120207501</v>
+        <v>28120203801</v>
       </c>
       <c r="D75" s="16">
-        <f t="shared" si="0"/>
-        <v>12070647</v>
-      </c>
-      <c r="E75" s="17"/>
+        <f>IFERROR(VLOOKUP(C75,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070604</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,16 +3277,18 @@
         <v>35</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C76" s="16">
-        <v>28120207607</v>
+        <v>28120204701</v>
       </c>
       <c r="D76" s="16">
-        <f t="shared" si="0"/>
-        <v>12070658</v>
-      </c>
-      <c r="E76" s="17"/>
+        <f>IFERROR(VLOOKUP(C76,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070613</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,16 +3296,18 @@
         <v>36</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="C77" s="16">
-        <v>28120207615</v>
+        <v>28120204901</v>
       </c>
       <c r="D77" s="16">
-        <f t="shared" si="0"/>
-        <v>12070662</v>
-      </c>
-      <c r="E77" s="17"/>
+        <f>IFERROR(VLOOKUP(C77,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070616</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3175,16 +3315,18 @@
         <v>37</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C78" s="16">
-        <v>28120207701</v>
+        <v>28120207001</v>
       </c>
       <c r="D78" s="16">
-        <f t="shared" si="0"/>
-        <v>12070663</v>
-      </c>
-      <c r="E78" s="17"/>
+        <f>IFERROR(VLOOKUP(C78,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070636</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3192,16 +3334,18 @@
         <v>38</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C79" s="16">
-        <v>28120209201</v>
+        <v>28120207201</v>
       </c>
       <c r="D79" s="16">
-        <f t="shared" si="0"/>
-        <v>12070682</v>
-      </c>
-      <c r="E79" s="17"/>
+        <f>IFERROR(VLOOKUP(C79,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070641</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,16 +3353,18 @@
         <v>39</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C80" s="16">
-        <v>28120209301</v>
+        <v>28120207501</v>
       </c>
       <c r="D80" s="16">
-        <f t="shared" si="0"/>
-        <v>12070683</v>
-      </c>
-      <c r="E80" s="17"/>
+        <f>IFERROR(VLOOKUP(C80,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070647</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,16 +3372,18 @@
         <v>40</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C81" s="16">
-        <v>28120209501</v>
+        <v>28120207701</v>
       </c>
       <c r="D81" s="16">
-        <f t="shared" si="0"/>
-        <v>12070686</v>
-      </c>
-      <c r="E81" s="17"/>
+        <f>IFERROR(VLOOKUP(C81,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070663</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,16 +3391,18 @@
         <v>41</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C82" s="16">
-        <v>28120209801</v>
+        <v>28120209201</v>
       </c>
       <c r="D82" s="16">
-        <f t="shared" si="0"/>
-        <v>12070689</v>
-      </c>
-      <c r="E82" s="17"/>
+        <f>IFERROR(VLOOKUP(C82,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070682</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,16 +3410,18 @@
         <v>42</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C83" s="16">
-        <v>28120210001</v>
+        <v>28120209301</v>
       </c>
       <c r="D83" s="16">
-        <f t="shared" si="0"/>
-        <v>12070691</v>
-      </c>
-      <c r="E83" s="17"/>
+        <f>IFERROR(VLOOKUP(C83,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070683</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3277,16 +3429,18 @@
         <v>43</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C84" s="16">
-        <v>28120210801</v>
+        <v>28120209801</v>
       </c>
       <c r="D84" s="16">
-        <f t="shared" si="0"/>
-        <v>12070703</v>
-      </c>
-      <c r="E84" s="17"/>
+        <f>IFERROR(VLOOKUP(C84,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070689</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,16 +3448,18 @@
         <v>44</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C85" s="16">
-        <v>28120211001</v>
+        <v>28120210001</v>
       </c>
       <c r="D85" s="16">
-        <f t="shared" si="0"/>
-        <v>12070705</v>
-      </c>
-      <c r="E85" s="17"/>
+        <f>IFERROR(VLOOKUP(C85,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070691</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,16 +3467,18 @@
         <v>45</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C86" s="16">
-        <v>28120211201</v>
+        <v>28120210801</v>
       </c>
       <c r="D86" s="16">
-        <f t="shared" si="0"/>
-        <v>12070706</v>
-      </c>
-      <c r="E86" s="17"/>
+        <f>IFERROR(VLOOKUP(C86,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070703</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,16 +3486,18 @@
         <v>46</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="C87" s="16">
-        <v>28120211901</v>
+        <v>28120211201</v>
       </c>
       <c r="D87" s="16">
-        <f t="shared" si="0"/>
-        <v>12070713</v>
-      </c>
-      <c r="E87" s="17"/>
+        <f>IFERROR(VLOOKUP(C87,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070706</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>300</v>
+      </c>
       <c r="F87" s="17"/>
     </row>
     <row r="88" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,19 +3505,24 @@
         <v>47</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="C88" s="16">
-        <v>28120212303</v>
+        <v>28120211901</v>
       </c>
       <c r="D88" s="16">
-        <f t="shared" si="0"/>
-        <v>12070727</v>
-      </c>
-      <c r="E88" s="17"/>
+        <f>IFERROR(VLOOKUP(C88,IMMSLOGIN,3,FALSE),"")</f>
+        <v>12070713</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="F88" s="17"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B57:F88">
+    <sortCondition ref="E57:E88"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A40:F40"/>
@@ -3372,7 +3537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5334,7 +5499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6076,7 +6241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -6672,7 +6837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
